--- a/Data Files/Website/DataFiles_CRM/Data_CRM_AssignCard.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_AssignCard.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="18650" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dev" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>SearchKYC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>SearchRefID</t>
   </si>
   <si>
     <t>CardNumber</t>
@@ -25,16 +25,31 @@
     <t>CardName</t>
   </si>
   <si>
-    <t>1048412348596019</t>
-  </si>
-  <si>
-    <t>EKA YUNI LESTARI</t>
-  </si>
-  <si>
-    <t>1048412348596010</t>
-  </si>
-  <si>
-    <t>JENNA COOPER</t>
+    <t>VerifyRequestID</t>
+  </si>
+  <si>
+    <t>VerifyStatusDeliveryEnRoute</t>
+  </si>
+  <si>
+    <t>VerifyStatusSuccessDelivery</t>
+  </si>
+  <si>
+    <t>1048412343790003</t>
+  </si>
+  <si>
+    <t>YUSWADI</t>
+  </si>
+  <si>
+    <t>Dalam perjalanan ke gudang Penyortiran</t>
+  </si>
+  <si>
+    <t>Pengiriman berhasil</t>
+  </si>
+  <si>
+    <t>1048412343790004</t>
+  </si>
+  <si>
+    <t>YUSUP SUPRIADI</t>
   </si>
 </sst>
 </file>
@@ -42,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +74,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -78,15 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,9 +100,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,92 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,85 +224,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,97 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,8 +421,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,8 +445,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,21 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,17 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,166 +515,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -978,21 +985,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="22.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="24.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1001,27 +1011,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>10484</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>10001545</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>10141</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>1110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>10001547</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_AssignCard.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_AssignCard.xlsx
@@ -34,10 +34,10 @@
     <t>VerifyStatusSuccessDelivery</t>
   </si>
   <si>
-    <t>1048412343790003</t>
-  </si>
-  <si>
-    <t>YUSWADI</t>
+    <t>3172201901830079</t>
+  </si>
+  <si>
+    <t>ARY TAUFANI</t>
   </si>
   <si>
     <t>Dalam perjalanan ke gudang Penyortiran</t>
@@ -46,10 +46,10 @@
     <t>Pengiriman berhasil</t>
   </si>
   <si>
-    <t>1048412343790004</t>
-  </si>
-  <si>
-    <t>YUSUP SUPRIADI</t>
+    <t>3171412143700003</t>
+  </si>
+  <si>
+    <t>MOCHAMAD RIZAL</t>
   </si>
 </sst>
 </file>
@@ -57,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,23 +72,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,8 +106,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,79 +130,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +184,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,151 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +427,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,11 +463,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,29 +527,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,136 +548,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1002,64 +1017,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1108</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>500172</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>10001545</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3">
+        <v>10001862</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1110</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>500173</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>10001547</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3">
+        <v>10001863</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
